--- a/natmiOut/OldD7/LR-pairs_lrc2p/Dcn-Tlr4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Dcn-Tlr4.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.51619222755681</v>
+        <v>22.73180333333334</v>
       </c>
       <c r="H2">
-        <v>6.51619222755681</v>
+        <v>68.19541000000001</v>
       </c>
       <c r="I2">
-        <v>0.00214968070905246</v>
+        <v>0.007290521456144306</v>
       </c>
       <c r="J2">
-        <v>0.00214968070905246</v>
+        <v>0.007290521456144306</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.84419742399134</v>
+        <v>8.714516333333334</v>
       </c>
       <c r="N2">
-        <v>7.84419742399134</v>
+        <v>26.143549</v>
       </c>
       <c r="O2">
-        <v>0.1749951953901328</v>
+        <v>0.1832255053237971</v>
       </c>
       <c r="P2">
-        <v>0.1749951953901328</v>
+        <v>0.1832255053237971</v>
       </c>
       <c r="Q2">
-        <v>51.11429828563352</v>
+        <v>198.0966714344545</v>
       </c>
       <c r="R2">
-        <v>51.11429828563352</v>
+        <v>1782.87004291009</v>
       </c>
       <c r="S2">
-        <v>0.0003761837957070344</v>
+        <v>0.001335809477876025</v>
       </c>
       <c r="T2">
-        <v>0.0003761837957070344</v>
+        <v>0.001335809477876025</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.51619222755681</v>
+        <v>22.73180333333334</v>
       </c>
       <c r="H3">
-        <v>6.51619222755681</v>
+        <v>68.19541000000001</v>
       </c>
       <c r="I3">
-        <v>0.00214968070905246</v>
+        <v>0.007290521456144306</v>
       </c>
       <c r="J3">
-        <v>0.00214968070905246</v>
+        <v>0.007290521456144306</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.4149132051113</v>
+        <v>16.48752133333333</v>
       </c>
       <c r="N3">
-        <v>16.4149132051113</v>
+        <v>49.462564</v>
       </c>
       <c r="O3">
-        <v>0.3661981957331846</v>
+        <v>0.3466554324170239</v>
       </c>
       <c r="P3">
-        <v>0.3661981957331846</v>
+        <v>0.346655432417024</v>
       </c>
       <c r="Q3">
-        <v>106.9627298431659</v>
+        <v>374.7910924034712</v>
       </c>
       <c r="R3">
-        <v>106.9627298431659</v>
+        <v>3373.119831631241</v>
       </c>
       <c r="S3">
-        <v>0.0007872091970574438</v>
+        <v>0.002527298867925295</v>
       </c>
       <c r="T3">
-        <v>0.0007872091970574438</v>
+        <v>0.002527298867925295</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.51619222755681</v>
+        <v>22.73180333333334</v>
       </c>
       <c r="H4">
-        <v>6.51619222755681</v>
+        <v>68.19541000000001</v>
       </c>
       <c r="I4">
-        <v>0.00214968070905246</v>
+        <v>0.007290521456144306</v>
       </c>
       <c r="J4">
-        <v>0.00214968070905246</v>
+        <v>0.007290521456144306</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.3607316076522</v>
+        <v>18.62376966666666</v>
       </c>
       <c r="N4">
-        <v>17.3607316076522</v>
+        <v>55.871309</v>
       </c>
       <c r="O4">
-        <v>0.3872983373040745</v>
+        <v>0.391570739865005</v>
       </c>
       <c r="P4">
-        <v>0.3872983373040745</v>
+        <v>0.391570739865005</v>
       </c>
       <c r="Q4">
-        <v>113.1258643664831</v>
+        <v>423.3518693879656</v>
       </c>
       <c r="R4">
-        <v>113.1258643664831</v>
+        <v>3810.16682449169</v>
       </c>
       <c r="S4">
-        <v>0.0008325677643506619</v>
+        <v>0.002854754880584119</v>
       </c>
       <c r="T4">
-        <v>0.0008325677643506619</v>
+        <v>0.002854754880584119</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.51619222755681</v>
+        <v>22.73180333333334</v>
       </c>
       <c r="H5">
-        <v>6.51619222755681</v>
+        <v>68.19541000000001</v>
       </c>
       <c r="I5">
-        <v>0.00214968070905246</v>
+        <v>0.007290521456144306</v>
       </c>
       <c r="J5">
-        <v>0.00214968070905246</v>
+        <v>0.007290521456144306</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.20537371562348</v>
+        <v>3.735891666666667</v>
       </c>
       <c r="N5">
-        <v>3.20537371562348</v>
+        <v>11.207675</v>
       </c>
       <c r="O5">
-        <v>0.07150827157260825</v>
+        <v>0.07854832239417409</v>
       </c>
       <c r="P5">
-        <v>0.07150827157260825</v>
+        <v>0.0785483223941741</v>
       </c>
       <c r="Q5">
-        <v>20.88683129216061</v>
+        <v>84.92355464130557</v>
       </c>
       <c r="R5">
-        <v>20.88683129216061</v>
+        <v>764.3119917717503</v>
       </c>
       <c r="S5">
-        <v>0.0001537199519373204</v>
+        <v>0.0005726582297588664</v>
       </c>
       <c r="T5">
-        <v>0.0001537199519373204</v>
+        <v>0.0005726582297588665</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3015.31565795238</v>
+        <v>3042.696044666667</v>
       </c>
       <c r="H6">
-        <v>3015.31565795238</v>
+        <v>9128.088134</v>
       </c>
       <c r="I6">
-        <v>0.994747495967352</v>
+        <v>0.9758504625824999</v>
       </c>
       <c r="J6">
-        <v>0.994747495967352</v>
+        <v>0.9758504625824997</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.84419742399134</v>
+        <v>8.714516333333334</v>
       </c>
       <c r="N6">
-        <v>7.84419742399134</v>
+        <v>26.143549</v>
       </c>
       <c r="O6">
-        <v>0.1749951953901328</v>
+        <v>0.1832255053237971</v>
       </c>
       <c r="P6">
-        <v>0.1749951953901328</v>
+        <v>0.1832255053237971</v>
       </c>
       <c r="Q6">
-        <v>23652.73131663081</v>
+        <v>26515.6243786164</v>
       </c>
       <c r="R6">
-        <v>23652.73131663081</v>
+        <v>238640.6194075476</v>
       </c>
       <c r="S6">
-        <v>0.1740760324206521</v>
+        <v>0.1788006941271397</v>
       </c>
       <c r="T6">
-        <v>0.1740760324206521</v>
+        <v>0.1788006941271396</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3015.31565795238</v>
+        <v>3042.696044666667</v>
       </c>
       <c r="H7">
-        <v>3015.31565795238</v>
+        <v>9128.088134</v>
       </c>
       <c r="I7">
-        <v>0.994747495967352</v>
+        <v>0.9758504625824999</v>
       </c>
       <c r="J7">
-        <v>0.994747495967352</v>
+        <v>0.9758504625824997</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.4149132051113</v>
+        <v>16.48752133333333</v>
       </c>
       <c r="N7">
-        <v>16.4149132051113</v>
+        <v>49.462564</v>
       </c>
       <c r="O7">
-        <v>0.3661981957331846</v>
+        <v>0.3466554324170239</v>
       </c>
       <c r="P7">
-        <v>0.3661981957331846</v>
+        <v>0.346655432417024</v>
       </c>
       <c r="Q7">
-        <v>49496.1448113014</v>
+        <v>50166.51594729062</v>
       </c>
       <c r="R7">
-        <v>49496.1448113014</v>
+        <v>451498.6435256156</v>
       </c>
       <c r="S7">
-        <v>0.3642747382333476</v>
+        <v>0.3382838640808893</v>
       </c>
       <c r="T7">
-        <v>0.3642747382333476</v>
+        <v>0.3382838640808893</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3015.31565795238</v>
+        <v>3042.696044666667</v>
       </c>
       <c r="H8">
-        <v>3015.31565795238</v>
+        <v>9128.088134</v>
       </c>
       <c r="I8">
-        <v>0.994747495967352</v>
+        <v>0.9758504625824999</v>
       </c>
       <c r="J8">
-        <v>0.994747495967352</v>
+        <v>0.9758504625824997</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.3607316076522</v>
+        <v>18.62376966666666</v>
       </c>
       <c r="N8">
-        <v>17.3607316076522</v>
+        <v>55.871309</v>
       </c>
       <c r="O8">
-        <v>0.3872983373040745</v>
+        <v>0.391570739865005</v>
       </c>
       <c r="P8">
-        <v>0.3872983373040745</v>
+        <v>0.391570739865005</v>
       </c>
       <c r="Q8">
-        <v>52348.08585006247</v>
+        <v>56666.47030154971</v>
       </c>
       <c r="R8">
-        <v>52348.08585006247</v>
+        <v>509998.2327139474</v>
       </c>
       <c r="S8">
-        <v>0.385264051225547</v>
+        <v>0.3821144876310368</v>
       </c>
       <c r="T8">
-        <v>0.385264051225547</v>
+        <v>0.3821144876310368</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3015.31565795238</v>
+        <v>3042.696044666667</v>
       </c>
       <c r="H9">
-        <v>3015.31565795238</v>
+        <v>9128.088134</v>
       </c>
       <c r="I9">
-        <v>0.994747495967352</v>
+        <v>0.9758504625824999</v>
       </c>
       <c r="J9">
-        <v>0.994747495967352</v>
+        <v>0.9758504625824997</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.20537371562348</v>
+        <v>3.735891666666667</v>
       </c>
       <c r="N9">
-        <v>3.20537371562348</v>
+        <v>11.207675</v>
       </c>
       <c r="O9">
-        <v>0.07150827157260825</v>
+        <v>0.07854832239417409</v>
       </c>
       <c r="P9">
-        <v>0.07150827157260825</v>
+        <v>0.0785483223941741</v>
       </c>
       <c r="Q9">
-        <v>9665.213554308479</v>
+        <v>11367.18279746983</v>
       </c>
       <c r="R9">
-        <v>9665.213554308479</v>
+        <v>102304.6451772285</v>
       </c>
       <c r="S9">
-        <v>0.07113267408780544</v>
+        <v>0.07665141674343412</v>
       </c>
       <c r="T9">
-        <v>0.07113267408780544</v>
+        <v>0.07665141674343412</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.84615856485442</v>
+        <v>1.93578</v>
       </c>
       <c r="H10">
-        <v>1.84615856485442</v>
+        <v>5.80734</v>
       </c>
       <c r="I10">
-        <v>0.0006090445637770164</v>
+        <v>0.0006208414447999517</v>
       </c>
       <c r="J10">
-        <v>0.0006090445637770164</v>
+        <v>0.0006208414447999516</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.84419742399134</v>
+        <v>8.714516333333334</v>
       </c>
       <c r="N10">
-        <v>7.84419742399134</v>
+        <v>26.143549</v>
       </c>
       <c r="O10">
-        <v>0.1749951953901328</v>
+        <v>0.1832255053237971</v>
       </c>
       <c r="P10">
-        <v>0.1749951953901328</v>
+        <v>0.1832255053237971</v>
       </c>
       <c r="Q10">
-        <v>14.48163225871059</v>
+        <v>16.86938642774</v>
       </c>
       <c r="R10">
-        <v>14.48163225871059</v>
+        <v>151.82447784966</v>
       </c>
       <c r="S10">
-        <v>0.0001065798724394572</v>
+        <v>0.0001137539874494274</v>
       </c>
       <c r="T10">
-        <v>0.0001065798724394572</v>
+        <v>0.0001137539874494274</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.84615856485442</v>
+        <v>1.93578</v>
       </c>
       <c r="H11">
-        <v>1.84615856485442</v>
+        <v>5.80734</v>
       </c>
       <c r="I11">
-        <v>0.0006090445637770164</v>
+        <v>0.0006208414447999517</v>
       </c>
       <c r="J11">
-        <v>0.0006090445637770164</v>
+        <v>0.0006208414447999516</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.4149132051113</v>
+        <v>16.48752133333333</v>
       </c>
       <c r="N11">
-        <v>16.4149132051113</v>
+        <v>49.462564</v>
       </c>
       <c r="O11">
-        <v>0.3661981957331846</v>
+        <v>0.3466554324170239</v>
       </c>
       <c r="P11">
-        <v>0.3661981957331846</v>
+        <v>0.346655432417024</v>
       </c>
       <c r="Q11">
-        <v>30.30453260495815</v>
+        <v>31.91621404664</v>
       </c>
       <c r="R11">
-        <v>30.30453260495815</v>
+        <v>287.24592641976</v>
       </c>
       <c r="S11">
-        <v>0.0002230310203762479</v>
+        <v>0.0002152180595095371</v>
       </c>
       <c r="T11">
-        <v>0.0002230310203762479</v>
+        <v>0.0002152180595095371</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.84615856485442</v>
+        <v>1.93578</v>
       </c>
       <c r="H12">
-        <v>1.84615856485442</v>
+        <v>5.80734</v>
       </c>
       <c r="I12">
-        <v>0.0006090445637770164</v>
+        <v>0.0006208414447999517</v>
       </c>
       <c r="J12">
-        <v>0.0006090445637770164</v>
+        <v>0.0006208414447999516</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.3607316076522</v>
+        <v>18.62376966666666</v>
       </c>
       <c r="N12">
-        <v>17.3607316076522</v>
+        <v>55.871309</v>
       </c>
       <c r="O12">
-        <v>0.3872983373040745</v>
+        <v>0.391570739865005</v>
       </c>
       <c r="P12">
-        <v>0.3872983373040745</v>
+        <v>0.391570739865005</v>
       </c>
       <c r="Q12">
-        <v>32.05066334960595</v>
+        <v>36.05152084533999</v>
       </c>
       <c r="R12">
-        <v>32.05066334960595</v>
+        <v>324.46368760806</v>
       </c>
       <c r="S12">
-        <v>0.0002358819468949238</v>
+        <v>0.0002431033438791757</v>
       </c>
       <c r="T12">
-        <v>0.0002358819468949238</v>
+        <v>0.0002431033438791757</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.84615856485442</v>
+        <v>1.93578</v>
       </c>
       <c r="H13">
-        <v>1.84615856485442</v>
+        <v>5.80734</v>
       </c>
       <c r="I13">
-        <v>0.0006090445637770164</v>
+        <v>0.0006208414447999517</v>
       </c>
       <c r="J13">
-        <v>0.0006090445637770164</v>
+        <v>0.0006208414447999516</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.20537371562348</v>
+        <v>3.735891666666667</v>
       </c>
       <c r="N13">
-        <v>3.20537371562348</v>
+        <v>11.207675</v>
       </c>
       <c r="O13">
-        <v>0.07150827157260825</v>
+        <v>0.07854832239417409</v>
       </c>
       <c r="P13">
-        <v>0.07150827157260825</v>
+        <v>0.0785483223941741</v>
       </c>
       <c r="Q13">
-        <v>5.917628138657523</v>
+        <v>7.231864370500001</v>
       </c>
       <c r="R13">
-        <v>5.917628138657523</v>
+        <v>65.08677933450001</v>
       </c>
       <c r="S13">
-        <v>4.355172406638761E-05</v>
+        <v>4.876605396181144E-05</v>
       </c>
       <c r="T13">
-        <v>4.355172406638761E-05</v>
+        <v>4.876605396181144E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.55923505455737</v>
+        <v>50.63053333333333</v>
       </c>
       <c r="H14">
-        <v>7.55923505455737</v>
+        <v>151.8916</v>
       </c>
       <c r="I14">
-        <v>0.002493778759818428</v>
+        <v>0.016238174516556</v>
       </c>
       <c r="J14">
-        <v>0.002493778759818428</v>
+        <v>0.016238174516556</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.84419742399134</v>
+        <v>8.714516333333334</v>
       </c>
       <c r="N14">
-        <v>7.84419742399134</v>
+        <v>26.143549</v>
       </c>
       <c r="O14">
-        <v>0.1749951953901328</v>
+        <v>0.1832255053237971</v>
       </c>
       <c r="P14">
-        <v>0.1749951953901328</v>
+        <v>0.1832255053237971</v>
       </c>
       <c r="Q14">
-        <v>59.29613214230396</v>
+        <v>441.2206096987111</v>
       </c>
       <c r="R14">
-        <v>59.29613214230396</v>
+        <v>3970.9854872884</v>
       </c>
       <c r="S14">
-        <v>0.0004363993013341889</v>
+        <v>0.002975247731331977</v>
       </c>
       <c r="T14">
-        <v>0.0004363993013341889</v>
+        <v>0.002975247731331977</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.55923505455737</v>
+        <v>50.63053333333333</v>
       </c>
       <c r="H15">
-        <v>7.55923505455737</v>
+        <v>151.8916</v>
       </c>
       <c r="I15">
-        <v>0.002493778759818428</v>
+        <v>0.016238174516556</v>
       </c>
       <c r="J15">
-        <v>0.002493778759818428</v>
+        <v>0.016238174516556</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>16.4149132051113</v>
+        <v>16.48752133333333</v>
       </c>
       <c r="N15">
-        <v>16.4149132051113</v>
+        <v>49.462564</v>
       </c>
       <c r="O15">
-        <v>0.3661981957331846</v>
+        <v>0.3466554324170239</v>
       </c>
       <c r="P15">
-        <v>0.3661981957331846</v>
+        <v>0.346655432417024</v>
       </c>
       <c r="Q15">
-        <v>124.084187317594</v>
+        <v>834.7719984513776</v>
       </c>
       <c r="R15">
-        <v>124.084187317594</v>
+        <v>7512.9479860624</v>
       </c>
       <c r="S15">
-        <v>0.000913217282403247</v>
+        <v>0.005629051408699818</v>
       </c>
       <c r="T15">
-        <v>0.000913217282403247</v>
+        <v>0.005629051408699819</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.55923505455737</v>
+        <v>50.63053333333333</v>
       </c>
       <c r="H16">
-        <v>7.55923505455737</v>
+        <v>151.8916</v>
       </c>
       <c r="I16">
-        <v>0.002493778759818428</v>
+        <v>0.016238174516556</v>
       </c>
       <c r="J16">
-        <v>0.002493778759818428</v>
+        <v>0.016238174516556</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.3607316076522</v>
+        <v>18.62376966666666</v>
       </c>
       <c r="N16">
-        <v>17.3607316076522</v>
+        <v>55.871309</v>
       </c>
       <c r="O16">
-        <v>0.3872983373040745</v>
+        <v>0.391570739865005</v>
       </c>
       <c r="P16">
-        <v>0.3872983373040745</v>
+        <v>0.391570739865005</v>
       </c>
       <c r="Q16">
-        <v>131.2338509413266</v>
+        <v>942.9313909004886</v>
       </c>
       <c r="R16">
-        <v>131.2338509413266</v>
+        <v>8486.382518104398</v>
       </c>
       <c r="S16">
-        <v>0.0009658363672818942</v>
+        <v>0.006358394009504902</v>
       </c>
       <c r="T16">
-        <v>0.0009658363672818942</v>
+        <v>0.006358394009504902</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.55923505455737</v>
+        <v>50.63053333333333</v>
       </c>
       <c r="H17">
-        <v>7.55923505455737</v>
+        <v>151.8916</v>
       </c>
       <c r="I17">
-        <v>0.002493778759818428</v>
+        <v>0.016238174516556</v>
       </c>
       <c r="J17">
-        <v>0.002493778759818428</v>
+        <v>0.016238174516556</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.20537371562348</v>
+        <v>3.735891666666667</v>
       </c>
       <c r="N17">
-        <v>3.20537371562348</v>
+        <v>11.207675</v>
       </c>
       <c r="O17">
-        <v>0.07150827157260825</v>
+        <v>0.07854832239417409</v>
       </c>
       <c r="P17">
-        <v>0.07150827157260825</v>
+        <v>0.0785483223941741</v>
       </c>
       <c r="Q17">
-        <v>24.23017335409781</v>
+        <v>189.1501875588889</v>
       </c>
       <c r="R17">
-        <v>24.23017335409781</v>
+        <v>1702.35168803</v>
       </c>
       <c r="S17">
-        <v>0.0001783258087990984</v>
+        <v>0.001275481367019303</v>
       </c>
       <c r="T17">
-        <v>0.0001783258087990984</v>
+        <v>0.001275481367019303</v>
       </c>
     </row>
   </sheetData>
